--- a/Holiday Recommendations/results.xlsx
+++ b/Holiday Recommendations/results.xlsx
@@ -7,7 +7,7 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Hotels Vienna" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Hotels Bucharest" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Hotels Palma de Mallorca" sheetId="5" r:id="rId5"/>
     <x:sheet name="Hotels Abu Dhabi" sheetId="7" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
@@ -39,7 +39,7 @@
     <x:t>Gabriel´s Apartments</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.booking.com/hotel/at/gabriels-apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALw3_iNBsACAdICJDZiMzY3NWMwLTYxMmUtNDA3NC1hMGI3LWFiNWNmZGJkNWMxMNgCBuACAQ&amp;sid=b60b1b08d9259b6d8bed143dbd055a58&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=0&amp;hapos=0&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=e19b85bdb6b3014c&amp;srepoch=1639854114&amp;all_sr_blocks=422836004_332800740_2_0_0&amp;highlighted_blocks=422836004_332800740_2_0_0&amp;matching_block_id=422836004_332800740_2_0_0&amp;sr_pri_blocks=422836004_332800740_2_0_0__77652&amp;from=searchresults#hotelTmpl</x:t>
+    <x:t>https://www.booking.com/hotel/at/gabriels-apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=0&amp;hapos=0&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=422836004_332800740_2_0_0&amp;highlighted_blocks=422836004_332800740_2_0_0&amp;matching_block_id=422836004_332800740_2_0_0&amp;sr_pri_blocks=422836004_332800740_2_0_0__77652&amp;from=searchresults#hotelTmpl</x:t>
   </x:si>
   <x:si>
     <x:t>9.7</x:t>
@@ -57,25 +57,43 @@
     <x:t>Apartments Rooseveltplatz</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.booking.com/hotel/at/apartments-rooseveltplatz.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALw3_iNBsACAdICJDZiMzY3NWMwLTYxMmUtNDA3NC1hMGI3LWFiNWNmZGJkNWMxMNgCBuACAQ&amp;sid=b60b1b08d9259b6d8bed143dbd055a58&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=e19b85bdb6b3014c&amp;srepoch=1639854114&amp;all_sr_blocks=201903003_337332643_0_0_0&amp;highlighted_blocks=201903003_337332643_0_0_0&amp;matching_block_id=201903003_337332643_0_0_0&amp;sr_pri_blocks=201903003_337332643_0_0_0__70000&amp;from=searchresults#hotelTmpl</x:t>
+    <x:t>https://www.booking.com/hotel/at/apartments-rooseveltplatz.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=201903003_337332643_0_0_0&amp;highlighted_blocks=201903003_337332643_0_0_0&amp;matching_block_id=201903003_337332643_0_0_0&amp;sr_pri_blocks=201903003_337332643_0_0_0__72500&amp;from=searchresults#hotelTmpl</x:t>
   </x:si>
   <x:si>
     <x:t>9.9</x:t>
   </x:si>
   <x:si>
-    <x:t>136 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,465 lei</x:t>
+    <x:t>130 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,589 lei</x:t>
   </x:si>
   <x:si>
     <x:t>1.2 km from centre</x:t>
   </x:si>
   <x:si>
+    <x:t>Mar Suite Apartments - Center</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/at/mar-suite-apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=49572603_94809021_0_0_0&amp;highlighted_blocks=49572603_94809021_0_0_0&amp;matching_block_id=49572603_94809021_0_0_0&amp;sr_pri_blocks=49572603_94809021_0_0_0__66586&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>196 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,296 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4 km from centre</x:t>
+  </x:si>
+  <x:si>
     <x:t>Good Vienna Apartment</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.booking.com/hotel/at/good-vienna-apartment.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALw3_iNBsACAdICJDZiMzY3NWMwLTYxMmUtNDA3NC1hMGI3LWFiNWNmZGJkNWMxMNgCBuACAQ&amp;sid=b60b1b08d9259b6d8bed143dbd055a58&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=e19b85bdb6b3014c&amp;srepoch=1639854114&amp;all_sr_blocks=326823301_167424617_2_0_0&amp;highlighted_blocks=326823301_167424617_2_0_0&amp;matching_block_id=326823301_167424617_2_0_0&amp;sr_pri_blocks=326823301_167424617_2_0_0__64450&amp;from=searchresults#hotelTmpl</x:t>
+    <x:t>https://www.booking.com/hotel/at/good-vienna-apartment.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=326823301_167424617_2_0_0&amp;highlighted_blocks=326823301_167424617_2_0_0&amp;matching_block_id=326823301_167424617_2_0_0&amp;sr_pri_blocks=326823301_167424617_2_0_0__64450&amp;from=searchresults#hotelTmpl</x:t>
   </x:si>
   <x:si>
     <x:t>131 reviews</x:t>
@@ -87,31 +105,13 @@
     <x:t>3.3 km from centre</x:t>
   </x:si>
   <x:si>
-    <x:t>Mar Suite Apartments - Center</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/at/mar-suite-apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALw3_iNBsACAdICJDZiMzY3NWMwLTYxMmUtNDA3NC1hMGI3LWFiNWNmZGJkNWMxMNgCBuACAQ&amp;sid=b60b1b08d9259b6d8bed143dbd055a58&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=e19b85bdb6b3014c&amp;srepoch=1639854114&amp;all_sr_blocks=49572603_94809021_0_0_0&amp;highlighted_blocks=49572603_94809021_0_0_0&amp;matching_block_id=49572603_94809021_0_0_0&amp;sr_pri_blocks=49572603_94809021_0_0_0__66586&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>201 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,296 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4 km from centre</x:t>
-  </x:si>
-  <x:si>
     <x:t>Sofie Apartments</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.booking.com/hotel/at/sofie-apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALw3_iNBsACAdICJDZiMzY3NWMwLTYxMmUtNDA3NC1hMGI3LWFiNWNmZGJkNWMxMNgCBuACAQ&amp;sid=b60b1b08d9259b6d8bed143dbd055a58&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=e19b85bdb6b3014c&amp;srepoch=1639854114&amp;all_sr_blocks=67392302_329749916_0_0_0&amp;highlighted_blocks=67392302_329749916_0_0_0&amp;matching_block_id=67392302_329749916_0_0_0&amp;sr_pri_blocks=67392302_329749916_0_0_0__62000&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>182 reviews</x:t>
+    <x:t>https://www.booking.com/hotel/at/sofie-apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=67392302_329749916_0_0_0&amp;highlighted_blocks=67392302_329749916_0_0_0&amp;matching_block_id=67392302_329749916_0_0_0&amp;sr_pri_blocks=67392302_329749916_0_0_0__62000&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179 reviews</x:t>
   </x:si>
   <x:si>
     <x:t>3,069 lei</x:t>
@@ -123,10 +123,13 @@
     <x:t>Appartements Zieglergasse</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.booking.com/hotel/at/appartement-zieglergasse.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALw3_iNBsACAdICJDZiMzY3NWMwLTYxMmUtNDA3NC1hMGI3LWFiNWNmZGJkNWMxMNgCBuACAQ&amp;sid=b60b1b08d9259b6d8bed143dbd055a58&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=e19b85bdb6b3014c&amp;srepoch=1639854114&amp;all_sr_blocks=196354201_189923412_4_0_0&amp;highlighted_blocks=196354201_189923412_4_0_0&amp;matching_block_id=196354201_189923412_4_0_0&amp;sr_pri_blocks=196354201_189923412_4_0_0__50618&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226 reviews</x:t>
+    <x:t>https://www.booking.com/hotel/at/appartement-zieglergasse.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=196354201_189923412_4_0_0&amp;highlighted_blocks=196354201_189923412_4_0_0&amp;matching_block_id=196354201_189923412_4_0_0&amp;sr_pri_blocks=196354201_189923412_4_0_0__50618&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>225 reviews</x:t>
   </x:si>
   <x:si>
     <x:t>2,506 lei</x:t>
@@ -135,13 +138,31 @@
     <x:t>2.6 km from centre</x:t>
   </x:si>
   <x:si>
+    <x:t>Boutiquehotel Das Tyrol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/at/dastyrol.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=7016007_88515074_0_2_0&amp;highlighted_blocks=7016007_88515074_0_2_0&amp;matching_block_id=7016007_88515074_0_2_0&amp;sr_pri_blocks=7016007_88515074_0_2_0__79380&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>444 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,929 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.7 km from centre</x:t>
+  </x:si>
+  <x:si>
     <x:t>Andrej Andrej</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.booking.com/hotel/at/andrej-andrej.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALw3_iNBsACAdICJDZiMzY3NWMwLTYxMmUtNDA3NC1hMGI3LWFiNWNmZGJkNWMxMNgCBuACAQ&amp;sid=b60b1b08d9259b6d8bed143dbd055a58&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=e19b85bdb6b3014c&amp;srepoch=1639854114&amp;all_sr_blocks=314943201_136272169_3_0_0&amp;highlighted_blocks=314943201_136272169_3_0_0&amp;matching_block_id=314943201_136272169_3_0_0&amp;sr_pri_blocks=314943201_136272169_3_0_0__42400&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120 reviews</x:t>
+    <x:t>https://www.booking.com/hotel/at/andrej-andrej.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=314943201_136272169_3_0_0&amp;highlighted_blocks=314943201_136272169_3_0_0&amp;matching_block_id=314943201_136272169_3_0_0&amp;sr_pri_blocks=314943201_136272169_3_0_0__42400&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117 reviews</x:t>
   </x:si>
   <x:si>
     <x:t>2,099 lei</x:t>
@@ -150,361 +171,340 @@
     <x:t>4.5 km from centre</x:t>
   </x:si>
   <x:si>
-    <x:t>Boutiquehotel Das Tyrol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/at/dastyrol.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALw3_iNBsACAdICJDZiMzY3NWMwLTYxMmUtNDA3NC1hMGI3LWFiNWNmZGJkNWMxMNgCBuACAQ&amp;sid=b60b1b08d9259b6d8bed143dbd055a58&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=e19b85bdb6b3014c&amp;srepoch=1639854114&amp;all_sr_blocks=7016007_88515074_0_2_0&amp;highlighted_blocks=7016007_88515074_0_2_0&amp;matching_block_id=7016007_88515074_0_2_0&amp;sr_pri_blocks=7016007_88515074_0_2_0__82620&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>445 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,090 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.7 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EST Residence Schönbrunn - Apartments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/at/est-1880-residence-schonbrunn-wien.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALw3_iNBsACAdICJDZiMzY3NWMwLTYxMmUtNDA3NC1hMGI3LWFiNWNmZGJkNWMxMNgCBuACAQ&amp;sid=b60b1b08d9259b6d8bed143dbd055a58&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=e19b85bdb6b3014c&amp;srepoch=1639854114&amp;all_sr_blocks=399304203_289915901_2_0_0&amp;highlighted_blocks=399304203_289915901_2_0_0&amp;matching_block_id=399304203_289915901_2_0_0&amp;sr_pri_blocks=399304203_289915901_2_0_0__70350&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>325 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,482 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.9 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boutique Hotel am Stephansplatz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/at/stephansplatz.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALw3_iNBsACAdICJDZiMzY3NWMwLTYxMmUtNDA3NC1hMGI3LWFiNWNmZGJkNWMxMNgCBuACAQ&amp;sid=b60b1b08d9259b6d8bed143dbd055a58&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=e19b85bdb6b3014c&amp;srepoch=1639854114&amp;all_sr_blocks=7002502_88988480_0_1_0&amp;highlighted_blocks=7002502_88988480_0_1_0&amp;matching_block_id=7002502_88988480_0_1_0&amp;sr_pri_blocks=7002502_88988480_0_1_0__84630&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>666 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,189 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500 m from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moxy Bucharest Old Town</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ro/moxy-bucharest-old-town.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKq4PiNBsACAdICJGQyMzU4N2NmLWUzNDgtNGY1Ny04YTNhLWZiOWU0YjYzZTZiNtgCBuACAQ&amp;sid=a611803e9a7e099307237d94c7216e18&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-1153951&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=0&amp;hapos=0&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=170785dc04bf00be&amp;srepoch=1639854149&amp;all_sr_blocks=612556902_246436661_0_2_0%2C612556902_246436661_0_2_0&amp;highlighted_blocks=612556902_246436661_0_2_0%2C612556902_246436661_0_2_0&amp;matching_block_id=612556902_246436661_0_2_0&amp;sr_pri_blocks=612556902_246436661_0_2_0__15192%2C612556902_246436661_0_2_0__15192&amp;from=searchresults#hotelTmpl</x:t>
+    <x:t>Eddie’s Design Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/at/eddies-design-apartmans.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=438437602_131297295_2_0_0&amp;highlighted_blocks=438437602_131297295_2_0_0&amp;matching_block_id=438437602_131297295_2_0_0&amp;sr_pri_blocks=438437602_131297295_2_0_0__79000&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>389 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,910 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.6 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The newPAST Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/at/quot-well-spaced-quot-apartment.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=409046503_289830687_4_0_0&amp;highlighted_blocks=409046503_289830687_4_0_0&amp;matching_block_id=409046503_289830687_4_0_0&amp;sr_pri_blocks=409046503_289830687_4_0_0__48400&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>256 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,396 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.8 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Basilica</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/basilica-palma.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=0&amp;hapos=0&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=509233306_326566476_0_1_0%2C509233306_326566476_0_1_0&amp;highlighted_blocks=509233306_326566476_0_1_0%2C509233306_326566476_0_1_0&amp;matching_block_id=509233306_326566476_0_1_0&amp;sr_pri_blocks=509233306_326566476_0_1_0__95076%2C509233306_326566476_0_1_0__95076&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>758 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,412 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.6 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fil Suites - Turismo de Interior</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/fil-suites-amp-homes.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=306471104_112250778_0_0_0%2C306471104_112250778_0_0_0&amp;highlighted_blocks=306471104_112250778_0_0_0%2C306471104_112250778_0_0_0&amp;matching_block_id=306471104_112250778_0_0_0&amp;sr_pri_blocks=306471104_112250778_0_0_0__46620%2C306471104_112250778_0_0_0__46620&amp;from=searchresults#hotelTmpl</x:t>
   </x:si>
   <x:si>
     <x:t>9.2</x:t>
   </x:si>
   <x:si>
-    <x:t>1,764 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,504 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150 m from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pergola Boutique Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ro/pergola-boutique.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKq4PiNBsACAdICJGQyMzU4N2NmLWUzNDgtNGY1Ny04YTNhLWZiOWU0YjYzZTZiNtgCBuACAQ&amp;sid=a611803e9a7e099307237d94c7216e18&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-1153951&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=170785dc04bf00be&amp;srepoch=1639854149&amp;all_sr_blocks=568708401_245902485_2_2_0%2C568708401_245902485_2_2_0&amp;highlighted_blocks=568708401_245902485_2_2_0%2C568708401_245902485_2_2_0&amp;matching_block_id=568708401_245902485_2_2_0&amp;sr_pri_blocks=568708401_245902485_2_2_0__189900%2C568708401_245902485_2_2_0__189900&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,798 lei</x:t>
+    <x:t>1,414 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,615 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.7 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nakar Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/nkr.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=163571401_272307712_0_1_0%2C163571401_272307712_0_1_0&amp;highlighted_blocks=163571401_272307712_0_1_0%2C163571401_272307712_0_1_0&amp;matching_block_id=163571401_272307712_0_1_0&amp;sr_pri_blocks=163571401_272307712_0_1_0__99765%2C163571401_272307712_0_1_0__99765&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,058 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,877 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.3 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Portixol Hotel &amp; Restaurant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/portixol.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=39610701_329626332_0_0_0%2C39610701_329626332_0_0_0&amp;highlighted_blocks=39610701_329626332_0_0_0%2C39610701_329626332_0_0_0&amp;matching_block_id=39610701_329626332_0_0_0&amp;sr_pri_blocks=39610701_329626332_0_0_0__121140%2C39610701_329626332_0_0_0__121140&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>385 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,993 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.3 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boutique Hotel Posada Terra Santa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/posada-terra-santa.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=100128409_88506615_0_2_0%2C100128409_88506615_0_2_0&amp;highlighted_blocks=100128409_88506615_0_2_0%2C100128409_88506615_0_2_0&amp;matching_block_id=100128409_88506615_0_2_0&amp;sr_pri_blocks=100128409_88506615_0_2_0__101665%2C100128409_88506615_0_2_0__101665&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>427 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,065 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Can Blau Homes Turismo de Interior</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/can-blau-homes-palma-de-mallorca.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=137516006_289861425_2_0_0%2C137516003_289861425_2_0_0&amp;highlighted_blocks=137516006_289861425_2_0_0%2C137516003_289861425_2_0_0&amp;matching_block_id=137516006_289861425_2_0_0&amp;sr_pri_blocks=137516006_289861425_2_0_0__71870%2C137516003_289861425_2_0_0__71870&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>701 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,348 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Cort</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/cort.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=59321302_328510656_0_1_0%2C59321305_328510656_2_1_0&amp;highlighted_blocks=59321302_328510656_0_1_0%2C59321305_328510656_2_1_0&amp;matching_block_id=59321302_328510656_0_1_0&amp;sr_pri_blocks=59321302_328510656_0_1_0__95790%2C59321305_328510656_2_1_0__111990&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>334 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,285 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BO Hotel Palma</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/bo-palma.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=190475201_92795351_0_34_0%2C190475201_92795351_0_34_0&amp;highlighted_blocks=190475201_92795351_0_34_0%2C190475201_92795351_0_34_0&amp;matching_block_id=190475201_92795351_0_34_0&amp;sr_pri_blocks=190475201_92795351_0_34_0__61730%2C190475201_92795351_0_34_0__61730&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>413 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,111 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Terreno Studios</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/terreno-studios.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=399969709_332997459_4_0_0&amp;highlighted_blocks=399969709_332997459_4_0_0&amp;matching_block_id=399969709_332997459_4_0_0&amp;sr_pri_blocks=399969709_332997459_4_0_0__235320&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>239 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,648 lei</x:t>
   </x:si>
   <x:si>
     <x:t>2.2 km from centre</x:t>
   </x:si>
   <x:si>
-    <x:t>Le Blanc ApartHotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ro/le-blanc-aparthotel.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKq4PiNBsACAdICJGQyMzU4N2NmLWUzNDgtNGY1Ny04YTNhLWZiOWU0YjYzZTZiNtgCBuACAQ&amp;sid=a611803e9a7e099307237d94c7216e18&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-1153951&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=170785dc04bf00be&amp;srepoch=1639854149&amp;all_sr_blocks=625807502_267501059_0_0_0%2C625807503_267501059_0_0_0&amp;highlighted_blocks=625807502_267501059_0_0_0%2C625807503_267501059_0_0_0&amp;matching_block_id=625807502_267501059_0_0_0&amp;sr_pri_blocks=625807502_267501059_0_0_0__94264%2C625807503_267501059_0_0_0__94264&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>840 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,885 lei</x:t>
+    <x:t>Mallorca Suites - Turismo de Interior</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/mallorca-suites.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=245695703_335707429_4_0_0&amp;highlighted_blocks=245695703_335707429_4_0_0&amp;matching_block_id=245695703_335707429_4_0_0&amp;sr_pri_blocks=245695703_335707429_4_0_0__87565&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>810 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,334 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Premier Inn Abu Dhabi International Airport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/ae/premier-inn-abu-dhabi-international-airport.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=0&amp;hapos=0&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=62146505_273565518_2_2_0&amp;highlighted_blocks=62146505_273565518_2_2_0&amp;matching_block_id=62146505_273565518_2_2_0&amp;sr_pri_blocks=62146505_273565518_2_2_0__136828&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,886 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,628 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.3 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Premier Inn Abu Dhabi Capital Centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/ae/premier-inn-abu-dhabi-capital-centre.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=34019601_273565531_0_2_0&amp;highlighted_blocks=34019601_273565531_0_2_0&amp;matching_block_id=34019601_273565531_0_2_0&amp;sr_pri_blocks=34019601_273565531_0_2_0__202452&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,096 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,409 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.5 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Al Diar Dana Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/ae/al-diar-dana.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=6728902_83360103_0_2_0&amp;highlighted_blocks=6728902_83360103_0_2_0&amp;matching_block_id=6728902_83360103_0_2_0&amp;sr_pri_blocks=6728902_83360103_0_2_0__137393&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,512 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,635 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Park Inn by Radisson Abu Dhabi Yas Island</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/ae/park-inn-abu-dhabi-yas-island.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=18344613_295322101_2_2_0&amp;highlighted_blocks=18344613_295322101_2_2_0&amp;matching_block_id=18344613_295322101_2_2_0&amp;sr_pri_blocks=18344613_295322101_2_2_0__136828&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,350 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.2 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beach Rotana – All Suites</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/ae/beach-rotana-suites.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=171977402_341541249_0_2_0&amp;highlighted_blocks=171977402_341541249_0_2_0&amp;matching_block_id=171977402_341541249_0_2_0&amp;sr_pri_blocks=171977402_341541249_0_2_0__208793&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>296 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,485 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Centro Al Manhal by Rotana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/ae/centro-al-manhal-abu-dhabi.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=32223001_340022818_0_42_0&amp;highlighted_blocks=32223001_340022818_0_42_0&amp;matching_block_id=32223001_340022818_0_42_0&amp;sr_pri_blocks=32223001_340022818_0_42_0__165065&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,807 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,964 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.5 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Downtown Plaza Hotel Apartment Pet Friendly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/ae/downtown-plaza.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=26417801_245460800_0_0_0&amp;highlighted_blocks=26417801_245460800_0_0_0&amp;matching_block_id=26417801_245460800_0_0_0&amp;sr_pri_blocks=26417801_245460800_0_0_0__195750&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,330 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Loulou Asfar Hotel Apartment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/ae/loulou-asfar-apartment.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=30934902_198656758_0_0_0&amp;highlighted_blocks=30934902_198656758_0_0_0&amp;matching_block_id=30934902_198656758_0_0_0&amp;sr_pri_blocks=30934902_198656758_0_0_0__176925&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>287 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,106 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.8 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Executive Suites</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/ae/executive-suites-by-mourouj-gloria-superior-hotel-apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=46580601_235498570_0_42_0&amp;highlighted_blocks=46580601_235498570_0_42_0&amp;matching_block_id=46580601_235498570_0_42_0&amp;sr_pri_blocks=46580601_235498570_0_42_0__129375&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>886 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,540 lei</x:t>
   </x:si>
   <x:si>
     <x:t>3.5 km from centre</x:t>
   </x:si>
   <x:si>
-    <x:t>AQUARIUS: Upscale Flat in the Heart of Bucharest!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ro/aquarius-upscale-flat-in-the-heart-of-bucharest.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKq4PiNBsACAdICJGQyMzU4N2NmLWUzNDgtNGY1Ny04YTNhLWZiOWU0YjYzZTZiNtgCBuACAQ&amp;sid=a611803e9a7e099307237d94c7216e18&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-1153951&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=170785dc04bf00be&amp;srepoch=1639854149&amp;all_sr_blocks=498454401_261892600_0_0_0&amp;highlighted_blocks=498454401_261892600_0_0_0&amp;matching_block_id=498454401_261892600_0_0_0&amp;sr_pri_blocks=498454401_261892600_0_0_0__76615&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>172 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>766 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.8 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Matisse Bucharest Old Town</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ro/smartrentals-bucharest-old-town.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKq4PiNBsACAdICJGQyMzU4N2NmLWUzNDgtNGY1Ny04YTNhLWZiOWU0YjYzZTZiNtgCBuACAQ&amp;sid=a611803e9a7e099307237d94c7216e18&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-1153951&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=170785dc04bf00be&amp;srepoch=1639854149&amp;all_sr_blocks=400349001_138490182_3_0_0%2C400349001_138490182_2_0_0&amp;highlighted_blocks=400349001_138490182_3_0_0%2C400349001_138490182_2_0_0&amp;matching_block_id=400349001_138490182_3_0_0&amp;sr_pri_blocks=400349001_138490182_3_0_0__159069%2C400349001_138490182_2_0_0__138069&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,132 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,971 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 m from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JN Boutique House</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ro/jn-boutique-bucuresti.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKq4PiNBsACAdICJGQyMzU4N2NmLWUzNDgtNGY1Ny04YTNhLWZiOWU0YjYzZTZiNtgCBuACAQ&amp;sid=a611803e9a7e099307237d94c7216e18&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-1153951&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=170785dc04bf00be&amp;srepoch=1639854149&amp;all_sr_blocks=598738403_234793820_0_2_0%2C598738403_234793820_0_2_0&amp;highlighted_blocks=598738403_234793820_0_2_0%2C598738403_234793820_0_2_0&amp;matching_block_id=598738403_234793820_0_2_0&amp;sr_pri_blocks=598738403_234793820_0_2_0__85320%2C598738403_234793820_0_2_0__85320&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>285 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,706 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>365 Apartments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ro/upground-365apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKq4PiNBsACAdICJGQyMzU4N2NmLWUzNDgtNGY1Ny04YTNhLWZiOWU0YjYzZTZiNtgCBuACAQ&amp;sid=a611803e9a7e099307237d94c7216e18&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-1153951&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=170785dc04bf00be&amp;srepoch=1639854149&amp;all_sr_blocks=484342911_272398488_4_0_0&amp;highlighted_blocks=484342911_272398488_4_0_0&amp;matching_block_id=484342911_272398488_4_0_0&amp;sr_pri_blocks=484342911_272398488_4_0_0__87000&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>295 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>870 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.2 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green Apartment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ro/green-apartment-bucuresti.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKq4PiNBsACAdICJGQyMzU4N2NmLWUzNDgtNGY1Ny04YTNhLWZiOWU0YjYzZTZiNtgCBuACAQ&amp;sid=a611803e9a7e099307237d94c7216e18&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-1153951&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=170785dc04bf00be&amp;srepoch=1639854149&amp;all_sr_blocks=190585804_264580904_4_0_0&amp;highlighted_blocks=190585804_264580904_4_0_0&amp;matching_block_id=190585804_264580904_4_0_0&amp;sr_pri_blocks=190585804_264580904_4_0_0__162000&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>199 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,620 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vila Cotroceni Boutique Apartments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ro/vila-cotroceni-boutique-apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKq4PiNBsACAdICJGQyMzU4N2NmLWUzNDgtNGY1Ny04YTNhLWZiOWU0YjYzZTZiNtgCBuACAQ&amp;sid=a611803e9a7e099307237d94c7216e18&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-1153951&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=170785dc04bf00be&amp;srepoch=1639854149&amp;all_sr_blocks=214302901_167184954_4_0_0&amp;highlighted_blocks=214302901_167184954_4_0_0&amp;matching_block_id=214302901_167184954_4_0_0&amp;sr_pri_blocks=214302901_167184954_4_0_0__244300&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>242 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,443 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.7 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Diana's Flat No 2 Bucharest - Old City</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ro/km-zero-apartment-bucharest.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKq4PiNBsACAdICJGQyMzU4N2NmLWUzNDgtNGY1Ny04YTNhLWZiOWU0YjYzZTZiNtgCBuACAQ&amp;sid=a611803e9a7e099307237d94c7216e18&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-1153951&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=170785dc04bf00be&amp;srepoch=1639854149&amp;all_sr_blocks=210806101_334189143_6_0_0&amp;highlighted_blocks=210806101_334189143_6_0_0&amp;matching_block_id=210806101_334189143_6_0_0&amp;sr_pri_blocks=210806101_334189143_6_0_0__191250&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,913 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Premier Inn Abu Dhabi International Airport</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/premier-inn-abu-dhabi-international-airport.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALN4PiNBsACAdICJDlhZmY4NWE1LTE1YWEtNDJjZS04OWE4LWExN2Q2ODE3Nzg1YtgCBuACAQ&amp;sid=b469d148191415704aa844449660de96&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=0&amp;hapos=0&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27d785ec83fa00da&amp;srepoch=1639854209&amp;all_sr_blocks=62146503_273565518_2_2_0&amp;highlighted_blocks=62146503_273565518_2_2_0&amp;matching_block_id=62146503_273565518_2_2_0&amp;sr_pri_blocks=62146503_273565518_2_2_0__136828&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,880 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,635 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28.3 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Al Diar Dana Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/al-diar-dana.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALN4PiNBsACAdICJDlhZmY4NWE1LTE1YWEtNDJjZS04OWE4LWExN2Q2ODE3Nzg1YtgCBuACAQ&amp;sid=b469d148191415704aa844449660de96&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27d785ec83fa00da&amp;srepoch=1639854209&amp;all_sr_blocks=6728902_83360103_0_2_0&amp;highlighted_blocks=6728902_83360103_0_2_0&amp;matching_block_id=6728902_83360103_0_2_0&amp;sr_pri_blocks=6728902_83360103_0_2_0__137393&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,480 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,642 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Park Inn by Radisson Abu Dhabi Yas Island</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/park-inn-abu-dhabi-yas-island.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALN4PiNBsACAdICJDlhZmY4NWE1LTE1YWEtNDJjZS04OWE4LWExN2Q2ODE3Nzg1YtgCBuACAQ&amp;sid=b469d148191415704aa844449660de96&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27d785ec83fa00da&amp;srepoch=1639854209&amp;all_sr_blocks=18344613_295322101_2_2_0&amp;highlighted_blocks=18344613_295322101_2_2_0&amp;matching_block_id=18344613_295322101_2_2_0&amp;sr_pri_blocks=18344613_295322101_2_2_0__151198&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,358 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,807 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23.2 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Premier Inn Abu Dhabi Capital Centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/premier-inn-abu-dhabi-capital-centre.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALN4PiNBsACAdICJDlhZmY4NWE1LTE1YWEtNDJjZS04OWE4LWExN2Q2ODE3Nzg1YtgCBuACAQ&amp;sid=b469d148191415704aa844449660de96&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27d785ec83fa00da&amp;srepoch=1639854209&amp;all_sr_blocks=34019602_273565531_2_2_0&amp;highlighted_blocks=34019602_273565531_2_2_0&amp;matching_block_id=34019602_273565531_2_2_0&amp;sr_pri_blocks=34019602_273565531_2_2_0__201661&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,095 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,410 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.5 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Centro Al Manhal by Rotana</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/centro-al-manhal-abu-dhabi.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALN4PiNBsACAdICJDlhZmY4NWE1LTE1YWEtNDJjZS04OWE4LWExN2Q2ODE3Nzg1YtgCBuACAQ&amp;sid=b469d148191415704aa844449660de96&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27d785ec83fa00da&amp;srepoch=1639854209&amp;all_sr_blocks=32223001_340022818_0_42_0&amp;highlighted_blocks=32223001_340022818_0_42_0&amp;matching_block_id=32223001_340022818_0_42_0&amp;sr_pri_blocks=32223001_340022818_0_42_0__165065&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7.9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,804 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,973 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.5 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beach Rotana – All Suites</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/beach-rotana-suites.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALN4PiNBsACAdICJDlhZmY4NWE1LTE1YWEtNDJjZS04OWE4LWExN2Q2ODE3Nzg1YtgCBuACAQ&amp;sid=b469d148191415704aa844449660de96&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27d785ec83fa00da&amp;srepoch=1639854209&amp;all_sr_blocks=171977402_341541249_0_2_0&amp;highlighted_blocks=171977402_341541249_0_2_0&amp;matching_block_id=171977402_341541249_0_2_0&amp;sr_pri_blocks=171977402_341541249_0_2_0__208793&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>296 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,496 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.3 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Centro Capital Centre By Rotana</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/centro-capital-center-by-rotana.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALN4PiNBsACAdICJDlhZmY4NWE1LTE1YWEtNDJjZS04OWE4LWExN2Q2ODE3Nzg1YtgCBuACAQ&amp;sid=b469d148191415704aa844449660de96&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27d785ec83fa00da&amp;srepoch=1639854209&amp;all_sr_blocks=43478302_95068562_0_42_0&amp;highlighted_blocks=43478302_95068562_0_42_0&amp;matching_block_id=43478302_95068562_0_42_0&amp;sr_pri_blocks=43478302_95068562_0_42_0__192613&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,247 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,302 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.8 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Executive Suites</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/executive-suites-by-mourouj-gloria-superior-hotel-apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALN4PiNBsACAdICJDlhZmY4NWE1LTE1YWEtNDJjZS04OWE4LWExN2Q2ODE3Nzg1YtgCBuACAQ&amp;sid=b469d148191415704aa844449660de96&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27d785ec83fa00da&amp;srepoch=1639854209&amp;all_sr_blocks=46580601_235498570_0_42_0&amp;highlighted_blocks=46580601_235498570_0_42_0&amp;matching_block_id=46580601_235498570_0_42_0&amp;sr_pri_blocks=46580601_235498570_0_42_0__129375&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7.7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>879 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,546 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Loulou Asfar Hotel Apartment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/loulou-asfar-apartment.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALN4PiNBsACAdICJDlhZmY4NWE1LTE1YWEtNDJjZS04OWE4LWExN2Q2ODE3Nzg1YtgCBuACAQ&amp;sid=b469d148191415704aa844449660de96&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27d785ec83fa00da&amp;srepoch=1639854209&amp;all_sr_blocks=30934902_198656758_0_0_0&amp;highlighted_blocks=30934902_198656758_0_0_0&amp;matching_block_id=30934902_198656758_0_0_0&amp;sr_pri_blocks=30934902_198656758_0_0_0__176925&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>286 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,115 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.8 km from centre</x:t>
-  </x:si>
-  <x:si>
     <x:t>Centro Yas Island-by Rotana</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.booking.com/hotel/ae/centro-yas-island-abu-dhabi.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALN4PiNBsACAdICJDlhZmY4NWE1LTE1YWEtNDJjZS04OWE4LWExN2Q2ODE3Nzg1YtgCBuACAQ&amp;sid=b469d148191415704aa844449660de96&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27d785ec83fa00da&amp;srepoch=1639854209&amp;all_sr_blocks=4712705_94269395_0_42_0&amp;highlighted_blocks=4712705_94269395_0_42_0&amp;matching_block_id=4712705_94269395_0_42_0&amp;sr_pri_blocks=4712705_94269395_0_42_0__118975&amp;from=searchresults#hotelTmpl</x:t>
+    <x:t>https://www.booking.com/hotel/ae/centro-yas-island-abu-dhabi.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=4712705_94269395_0_42_0&amp;highlighted_blocks=4712705_94269395_0_42_0&amp;matching_block_id=4712705_94269395_0_42_0&amp;sr_pri_blocks=4712705_94269395_0_42_0__118975&amp;from=searchresults#hotelTmpl</x:t>
   </x:si>
   <x:si>
     <x:t>8.0</x:t>
   </x:si>
   <x:si>
-    <x:t>4,205 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,422 lei</x:t>
+    <x:t>4,170 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,416 lei</x:t>
   </x:si>
   <x:si>
     <x:t>23.3 km from centre</x:t>
@@ -932,27 +932,27 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>26</x:v>
@@ -992,96 +992,96 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1126,13 +1126,13 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>64</x:v>
@@ -1152,96 +1152,96 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -1252,7 +1252,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>94</x:v>
@@ -1261,67 +1261,67 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
+      <x:c r="E9" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="E10" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
+      <x:c r="F10" s="0" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="D11" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
+      <x:c r="E11" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1366,42 +1366,42 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>115</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -1412,116 +1412,116 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="F7" s="0" t="s">
         <x:v>140</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="F8" s="0" t="s">
         <x:v>146</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="D9" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
+      <x:c r="E9" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="s">
+      <x:c r="F9" s="0" t="s">
         <x:v>152</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -1532,7 +1532,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>155</x:v>

--- a/Holiday Recommendations/results.xlsx
+++ b/Holiday Recommendations/results.xlsx
@@ -6,9 +6,13 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Hotels Vienna" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Hotels Madrid" sheetId="2" r:id="rId2"/>
     <x:sheet name="Hotels Palma de Mallorca" sheetId="5" r:id="rId5"/>
-    <x:sheet name="Hotels Abu Dhabi" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Hotels London" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Attractions Madrid" sheetId="8" r:id="rId8"/>
+    <x:sheet name="Attractions Palma de Mallorca" sheetId="9" r:id="rId9"/>
+    <x:sheet name="Restaurants Palma de Mallorca" sheetId="10" r:id="rId10"/>
+    <x:sheet name="Restaurants London" sheetId="11" r:id="rId11"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -16,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
   <x:si>
     <x:t>Hotel name</x:t>
   </x:si>
@@ -36,478 +40,871 @@
     <x:t>Location</x:t>
   </x:si>
   <x:si>
-    <x:t>Gabriel´s Apartments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/at/gabriels-apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=0&amp;hapos=0&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=422836004_332800740_2_0_0&amp;highlighted_blocks=422836004_332800740_2_0_0&amp;matching_block_id=422836004_332800740_2_0_0&amp;sr_pri_blocks=422836004_332800740_2_0_0__77652&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>251 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,163 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.8 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apartments Rooseveltplatz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/at/apartments-rooseveltplatz.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=201903003_337332643_0_0_0&amp;highlighted_blocks=201903003_337332643_0_0_0&amp;matching_block_id=201903003_337332643_0_0_0&amp;sr_pri_blocks=201903003_337332643_0_0_0__72500&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,589 lei</x:t>
+    <x:t>Apartamentos Caballero de Gracia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/caballerodegraciamadrid.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAL15_eOBsACAdICJGVhNGZkMDkzLTgyNjUtNDE1OC05NWUxLWI3ZmMzMGYzYzIwNNgCBuACAQ&amp;sid=0e8680ef0c09eeda89295dacf901befc&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=556395c0abf201ba&amp;srepoch=1641935925&amp;all_sr_blocks=9128006_169845060_2_0_0&amp;highlighted_blocks=9128006_169845060_2_0_0&amp;matching_block_id=9128006_169845060_2_0_0&amp;sr_pri_blocks=9128006_169845060_2_0_0__57500&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>779 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,844 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.4 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Behap Madrid Puerta del Sol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/behap-puerta-del-sol.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAL15_eOBsACAdICJGVhNGZkMDkzLTgyNjUtNDE1OC05NWUxLWI3ZmMzMGYzYzIwNNgCBuACAQ&amp;sid=0e8680ef0c09eeda89295dacf901befc&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=556395c0abf201ba&amp;srepoch=1641935925&amp;all_sr_blocks=466483201_164313589_2_0_0&amp;highlighted_blocks=466483201_164313589_2_0_0&amp;matching_block_id=466483201_164313589_2_0_0&amp;sr_pri_blocks=466483201_164313589_2_0_0__75900&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>238 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,080 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.1 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arenal Suites Puerta del Sol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/arenalsuites.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAL15_eOBsACAdICJGVhNGZkMDkzLTgyNjUtNDE1OC05NWUxLWI3ZmMzMGYzYzIwNNgCBuACAQ&amp;sid=0e8680ef0c09eeda89295dacf901befc&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=556395c0abf201ba&amp;srepoch=1641935925&amp;all_sr_blocks=130694908_263844404_2_0_0&amp;highlighted_blocks=130694908_263844404_2_0_0&amp;matching_block_id=130694908_263844404_2_0_0&amp;sr_pri_blocks=130694908_263844404_2_0_0__69000&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>789 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,412 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.2 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Feelathome Madrid Suites Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/feelathome-madrid-suites-apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAL15_eOBsACAdICJGVhNGZkMDkzLTgyNjUtNDE1OC05NWUxLWI3ZmMzMGYzYzIwNNgCBuACAQ&amp;sid=0e8680ef0c09eeda89295dacf901befc&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=556395c0abf201ba&amp;srepoch=1641935925&amp;all_sr_blocks=309693103_326412166_0_0_0&amp;highlighted_blocks=309693103_326412166_0_0_0&amp;matching_block_id=309693103_326412166_0_0_0&amp;sr_pri_blocks=309693103_326412166_0_0_0__78400&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>407 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,877 lei</x:t>
   </x:si>
   <x:si>
     <x:t>1.2 km from centre</x:t>
   </x:si>
   <x:si>
-    <x:t>Mar Suite Apartments - Center</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/at/mar-suite-apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=49572603_94809021_0_0_0&amp;highlighted_blocks=49572603_94809021_0_0_0&amp;matching_block_id=49572603_94809021_0_0_0&amp;sr_pri_blocks=49572603_94809021_0_0_0__66586&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>196 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,296 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Good Vienna Apartment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/at/good-vienna-apartment.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=326823301_167424617_2_0_0&amp;highlighted_blocks=326823301_167424617_2_0_0&amp;matching_block_id=326823301_167424617_2_0_0&amp;sr_pri_blocks=326823301_167424617_2_0_0__64450&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,190 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.3 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sofie Apartments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/at/sofie-apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=67392302_329749916_0_0_0&amp;highlighted_blocks=67392302_329749916_0_0_0&amp;matching_block_id=67392302_329749916_0_0_0&amp;sr_pri_blocks=67392302_329749916_0_0_0__62000&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,069 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.5 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Appartements Zieglergasse</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/at/appartement-zieglergasse.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=196354201_189923412_4_0_0&amp;highlighted_blocks=196354201_189923412_4_0_0&amp;matching_block_id=196354201_189923412_4_0_0&amp;sr_pri_blocks=196354201_189923412_4_0_0__50618&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>225 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,506 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.6 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boutiquehotel Das Tyrol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/at/dastyrol.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=7016007_88515074_0_2_0&amp;highlighted_blocks=7016007_88515074_0_2_0&amp;matching_block_id=7016007_88515074_0_2_0&amp;sr_pri_blocks=7016007_88515074_0_2_0__79380&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>444 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,929 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.7 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Andrej Andrej</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/at/andrej-andrej.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=314943201_136272169_3_0_0&amp;highlighted_blocks=314943201_136272169_3_0_0&amp;matching_block_id=314943201_136272169_3_0_0&amp;sr_pri_blocks=314943201_136272169_3_0_0__42400&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,099 lei</x:t>
+    <x:t>Room Mate Alba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/room-mate-alba.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAL15_eOBsACAdICJGVhNGZkMDkzLTgyNjUtNDE1OC05NWUxLWI3ZmMzMGYzYzIwNNgCBuACAQ&amp;sid=0e8680ef0c09eeda89295dacf901befc&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=556395c0abf201ba&amp;srepoch=1641935925&amp;all_sr_blocks=491307701_336313686_0_2_0&amp;highlighted_blocks=491307701_336313686_0_2_0&amp;matching_block_id=491307701_336313686_0_2_0&amp;sr_pri_blocks=491307701_336313686_0_2_0__78700&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,669 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,892 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Smartrental Collection Gran Vía Centric</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/gv-centric.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAL15_eOBsACAdICJGVhNGZkMDkzLTgyNjUtNDE1OC05NWUxLWI3ZmMzMGYzYzIwNNgCBuACAQ&amp;sid=0e8680ef0c09eeda89295dacf901befc&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=556395c0abf201ba&amp;srepoch=1641935925&amp;all_sr_blocks=434326302_260003279_0_0_0&amp;highlighted_blocks=434326302_260003279_0_0_0&amp;matching_block_id=434326302_260003279_0_0_0&amp;sr_pri_blocks=434326302_260003279_0_0_0__70840&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,457 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,808 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alma Suites</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/alma-apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAL15_eOBsACAdICJGVhNGZkMDkzLTgyNjUtNDE1OC05NWUxLWI3ZmMzMGYzYzIwNNgCBuACAQ&amp;sid=0e8680ef0c09eeda89295dacf901befc&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=556395c0abf201ba&amp;srepoch=1641935925&amp;all_sr_blocks=247199601_183478532_2_0_0&amp;highlighted_blocks=247199601_183478532_2_0_0&amp;matching_block_id=247199601_183478532_2_0_0&amp;sr_pri_blocks=247199601_183478532_2_0_0__57040&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,066 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.7 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARTIEM Madrid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/hotel-artiem-madrid.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAL15_eOBsACAdICJGVhNGZkMDkzLTgyNjUtNDE1OC05NWUxLWI3ZmMzMGYzYzIwNNgCBuACAQ&amp;sid=0e8680ef0c09eeda89295dacf901befc&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=556395c0abf201ba&amp;srepoch=1641935925&amp;all_sr_blocks=9389901_232725883_0_2_0&amp;highlighted_blocks=9389901_232725883_0_2_0&amp;matching_block_id=9389901_232725883_0_2_0&amp;sr_pri_blocks=9389901_232725883_0_2_0__47328&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,272 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,926 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.5 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Catalonia Las Cortes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/catalonia-las-cortes.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAL15_eOBsACAdICJGVhNGZkMDkzLTgyNjUtNDE1OC05NWUxLWI3ZmMzMGYzYzIwNNgCBuACAQ&amp;sid=0e8680ef0c09eeda89295dacf901befc&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=556395c0abf201ba&amp;srepoch=1641935925&amp;all_sr_blocks=9234512_194586038_0_2_0&amp;highlighted_blocks=9234512_194586038_0_2_0&amp;matching_block_id=9234512_194586038_0_2_0&amp;sr_pri_blocks=9234512_194586038_0_2_0__69000&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,111 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vincci The Mint</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/vincci-the-mint.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAL15_eOBsACAdICJGVhNGZkMDkzLTgyNjUtNDE1OC05NWUxLWI3ZmMzMGYzYzIwNNgCBuACAQ&amp;sid=0e8680ef0c09eeda89295dacf901befc&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-390625&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=556395c0abf201ba&amp;srepoch=1641935925&amp;all_sr_blocks=167651619_338644095_0_2_0&amp;highlighted_blocks=167651619_338644095_0_2_0&amp;matching_block_id=167651619_338644095_0_2_0&amp;sr_pri_blocks=167651619_338644095_0_2_0__85085&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,898 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.5 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nakar Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/nkr.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK66PeOBsACAdICJDkxZTFiNWM3LTE2YTEtNDc5OS1hMTJkLTIxNWVkYTZkNGVlONgCBuACAQ&amp;sid=59e6f0573874d259cc0a9922fff54d87&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=5ad895e6f64401eb&amp;srepoch=1641935971&amp;all_sr_blocks=163571401_272307712_0_1_0%2C163571401_272307712_0_1_0&amp;highlighted_blocks=163571401_272307712_0_1_0%2C163571401_272307712_0_1_0&amp;matching_block_id=163571401_272307712_0_1_0&amp;sr_pri_blocks=163571401_272307712_0_1_0__99765%2C163571401_272307712_0_1_0__99765&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,041 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,867 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>350 m from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Basilica</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/basilica-palma.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK66PeOBsACAdICJDkxZTFiNWM3LTE2YTEtNDc5OS1hMTJkLTIxNWVkYTZkNGVlONgCBuACAQ&amp;sid=59e6f0573874d259cc0a9922fff54d87&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=5ad895e6f64401eb&amp;srepoch=1641935971&amp;all_sr_blocks=509233306_326566476_0_1_0%2C509233306_326566476_0_1_0&amp;highlighted_blocks=509233306_326566476_0_1_0%2C509233306_326566476_0_1_0&amp;matching_block_id=509233306_326566476_0_1_0&amp;sr_pri_blocks=509233306_326566476_0_1_0__97077%2C509233306_326566476_0_1_0__97077&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>766 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,601 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.6 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fil Suites - Turismo de Interior</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/fil-suites-amp-homes.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK66PeOBsACAdICJDkxZTFiNWM3LTE2YTEtNDc5OS1hMTJkLTIxNWVkYTZkNGVlONgCBuACAQ&amp;sid=59e6f0573874d259cc0a9922fff54d87&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=5ad895e6f64401eb&amp;srepoch=1641935971&amp;all_sr_blocks=306471104_112250778_0_0_0%2C306471104_112250778_0_0_0&amp;highlighted_blocks=306471104_112250778_0_0_0%2C306471104_112250778_0_0_0&amp;matching_block_id=306471104_112250778_0_0_0&amp;sr_pri_blocks=306471104_112250778_0_0_0__46620%2C306471104_112250778_0_0_0__46620&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,422 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,611 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Cort</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/cort.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK66PeOBsACAdICJDkxZTFiNWM3LTE2YTEtNDc5OS1hMTJkLTIxNWVkYTZkNGVlONgCBuACAQ&amp;sid=59e6f0573874d259cc0a9922fff54d87&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=5ad895e6f64401eb&amp;srepoch=1641935971&amp;all_sr_blocks=59321302_328510656_0_1_0%2C59321305_328510656_2_1_0&amp;highlighted_blocks=59321302_328510656_0_1_0%2C59321305_328510656_2_1_0&amp;matching_block_id=59321302_328510656_0_1_0&amp;sr_pri_blocks=59321302_328510656_0_1_0__95790%2C59321305_328510656_2_1_0__111990&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>340 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,275 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300 m from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Can Blau Homes Turismo de Interior</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/can-blau-homes-palma-de-mallorca.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK66PeOBsACAdICJDkxZTFiNWM3LTE2YTEtNDc5OS1hMTJkLTIxNWVkYTZkNGVlONgCBuACAQ&amp;sid=59e6f0573874d259cc0a9922fff54d87&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=5ad895e6f64401eb&amp;srepoch=1641935971&amp;all_sr_blocks=137516006_289861425_2_0_0%2C137516003_289861425_2_0_0&amp;highlighted_blocks=137516006_289861425_2_0_0%2C137516003_289861425_2_0_0&amp;matching_block_id=137516006_289861425_2_0_0&amp;sr_pri_blocks=137516006_289861425_2_0_0__78925%2C137516003_289861425_2_0_0__78925&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>704 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,161 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boutique Hotel Posada Terra Santa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/posada-terra-santa.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK66PeOBsACAdICJDkxZTFiNWM3LTE2YTEtNDc5OS1hMTJkLTIxNWVkYTZkNGVlONgCBuACAQ&amp;sid=59e6f0573874d259cc0a9922fff54d87&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=5ad895e6f64401eb&amp;srepoch=1641935971&amp;all_sr_blocks=100128409_88506615_0_2_0%2C100128409_88506615_0_2_0&amp;highlighted_blocks=100128409_88506615_0_2_0%2C100128409_88506615_0_2_0&amp;matching_block_id=100128409_88506615_0_2_0&amp;sr_pri_blocks=100128409_88506615_0_2_0__101665%2C100128409_88506615_0_2_0__101665&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>424 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,055 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BO Hotel Palma</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/bo-palma.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK66PeOBsACAdICJDkxZTFiNWM3LTE2YTEtNDc5OS1hMTJkLTIxNWVkYTZkNGVlONgCBuACAQ&amp;sid=59e6f0573874d259cc0a9922fff54d87&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=5ad895e6f64401eb&amp;srepoch=1641935971&amp;all_sr_blocks=190475201_92795351_0_34_0%2C190475201_92795351_0_34_0&amp;highlighted_blocks=190475201_92795351_0_34_0%2C190475201_92795351_0_34_0&amp;matching_block_id=190475201_92795351_0_34_0&amp;sr_pri_blocks=190475201_92795351_0_34_0__61730%2C190475201_92795351_0_34_0__61730&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>404 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,105 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Portixol Hotel &amp; Restaurant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/portixol.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK66PeOBsACAdICJDkxZTFiNWM3LTE2YTEtNDc5OS1hMTJkLTIxNWVkYTZkNGVlONgCBuACAQ&amp;sid=59e6f0573874d259cc0a9922fff54d87&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=5ad895e6f64401eb&amp;srepoch=1641935971&amp;all_sr_blocks=39610701_329626332_0_0_0%2C39610701_329626332_0_0_0&amp;highlighted_blocks=39610701_329626332_0_0_0%2C39610701_329626332_0_0_0&amp;matching_block_id=39610701_329626332_0_0_0&amp;sr_pri_blocks=39610701_329626332_0_0_0__121140%2C39610701_329626332_0_0_0__121140&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>384 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,981 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.3 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mallorca Suites - Turismo de Interior</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/mallorca-suites.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK66PeOBsACAdICJDkxZTFiNWM3LTE2YTEtNDc5OS1hMTJkLTIxNWVkYTZkNGVlONgCBuACAQ&amp;sid=59e6f0573874d259cc0a9922fff54d87&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=5ad895e6f64401eb&amp;srepoch=1641935971&amp;all_sr_blocks=245695701_335707429_2_0_0%2C245695701_335707429_2_0_0&amp;highlighted_blocks=245695701_335707429_2_0_0%2C245695701_335707429_2_0_0&amp;matching_block_id=245695701_335707429_2_0_0&amp;sr_pri_blocks=245695701_335707429_2_0_0__59983%2C245695701_335707429_2_0_0__59983&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>819 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,933 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AH Art Hotel Palma</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/es/art-palma.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK66PeOBsACAdICJDkxZTFiNWM3LTE2YTEtNDc5OS1hMTJkLTIxNWVkYTZkNGVlONgCBuACAQ&amp;sid=59e6f0573874d259cc0a9922fff54d87&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=5ad895e6f64401eb&amp;srepoch=1641935971&amp;all_sr_blocks=140115205_88512235_2_1_0%2C140115205_88512235_2_1_0&amp;highlighted_blocks=140115205_88512235_2_1_0%2C140115205_88512235_2_1_0&amp;matching_block_id=140115205_88512235_2_1_0&amp;sr_pri_blocks=140115205_88512235_2_1_0__52080%2C140115205_88512235_2_1_0__52080&amp;tpi_r=2&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>309 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,151 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400 m from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Streatham Common Bed &amp; Breakfast</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/gb/streatham-common-homestay.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALm6PeOBsACAdICJGUyZDhhOWRiLWZmODAtNGVjYS1hMDZlLTY1YjkxZmVhN2Q0NtgCBuACAQ&amp;sid=ff07a0742b8d348aee788348f12cc6c1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-2601889&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=3e7995fa2dc600ec&amp;srepoch=1641936049&amp;all_sr_blocks=298599901_310886412_1_1_0&amp;highlighted_blocks=298599901_310886412_1_1_0&amp;matching_block_id=298599901_310886412_1_1_0&amp;sr_pri_blocks=298599901_310886412_1_1_0__35625&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>373 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,111 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Harlinger Lodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/gb/harlinger-lodge-london.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALm6PeOBsACAdICJGUyZDhhOWRiLWZmODAtNGVjYS1hMDZlLTY1YjkxZmVhN2Q0NtgCBuACAQ&amp;sid=ff07a0742b8d348aee788348f12cc6c1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-2601889&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=3e7995fa2dc600ec&amp;srepoch=1641936049&amp;all_sr_blocks=353286303_334030266_2_0_0&amp;highlighted_blocks=353286303_334030266_2_0_0&amp;matching_block_id=353286303_334030266_2_0_0&amp;sr_pri_blocks=353286303_334030266_2_0_0__30000&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,777 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.1 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Crown Pub &amp; Guesthouse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/gb/flynns-guesthouse.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALm6PeOBsACAdICJGUyZDhhOWRiLWZmODAtNGVjYS1hMDZlLTY1YjkxZmVhN2Q0NtgCBuACAQ&amp;sid=ff07a0742b8d348aee788348f12cc6c1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-2601889&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=3e7995fa2dc600ec&amp;srepoch=1641936049&amp;all_sr_blocks=314741001_278135742_0_0_0&amp;highlighted_blocks=314741001_278135742_0_0_0&amp;matching_block_id=314741001_278135742_0_0_0&amp;sr_pri_blocks=314741001_278135742_0_0_0__31500&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>544 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,866 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.9 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hostel One Notting Hill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/gb/notting-hill-hostel.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALm6PeOBsACAdICJGUyZDhhOWRiLWZmODAtNGVjYS1hMDZlLTY1YjkxZmVhN2Q0NtgCBuACAQ&amp;sid=ff07a0742b8d348aee788348f12cc6c1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-2601889&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=3e7995fa2dc600ec&amp;srepoch=1641936049&amp;all_sr_blocks=159936706_123231578_0_0_0&amp;highlighted_blocks=159936706_123231578_0_0_0&amp;matching_block_id=159936706_123231578_0_0_0&amp;sr_pri_blocks=159936706_123231578_0_0_0__11280&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>460 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>668 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.6 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martel Guest House all rooms with aircon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/gb/martel-guest-house.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALm6PeOBsACAdICJGUyZDhhOWRiLWZmODAtNGVjYS1hMDZlLTY1YjkxZmVhN2Q0NtgCBuACAQ&amp;sid=ff07a0742b8d348aee788348f12cc6c1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-2601889&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=3e7995fa2dc600ec&amp;srepoch=1641936049&amp;all_sr_blocks=147370202_343050832_1_0_0&amp;highlighted_blocks=147370202_343050832_1_0_0&amp;matching_block_id=147370202_343050832_1_0_0&amp;sr_pri_blocks=147370202_343050832_1_0_0__35000&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>422 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,074 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.7 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>La Gaffe - Restaurant with Rooms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/gb/la-gaffe.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALm6PeOBsACAdICJGUyZDhhOWRiLWZmODAtNGVjYS1hMDZlLTY1YjkxZmVhN2Q0NtgCBuACAQ&amp;sid=ff07a0742b8d348aee788348f12cc6c1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-2601889&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=3e7995fa2dc600ec&amp;srepoch=1641936049&amp;all_sr_blocks=25992201_91916029_0_1_0&amp;highlighted_blocks=25992201_91916029_0_1_0&amp;matching_block_id=25992201_91916029_0_1_0&amp;sr_pri_blocks=25992201_91916029_0_1_0__38250&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>317 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,266 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.8 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>City studios london</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/gb/city-studios-london.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALm6PeOBsACAdICJGUyZDhhOWRiLWZmODAtNGVjYS1hMDZlLTY1YjkxZmVhN2Q0NtgCBuACAQ&amp;sid=ff07a0742b8d348aee788348f12cc6c1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-2601889&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=3e7995fa2dc600ec&amp;srepoch=1641936049&amp;all_sr_blocks=282332601_108325464_2_0_0&amp;highlighted_blocks=282332601_108325464_2_0_0&amp;matching_block_id=282332601_108325464_2_0_0&amp;sr_pri_blocks=282332601_108325464_2_0_0__36500&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,163 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOX HOTELS - West Hampstead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/gb/291-suites.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALm6PeOBsACAdICJGUyZDhhOWRiLWZmODAtNGVjYS1hMDZlLTY1YjkxZmVhN2Q0NtgCBuACAQ&amp;sid=ff07a0742b8d348aee788348f12cc6c1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-2601889&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=3e7995fa2dc600ec&amp;srepoch=1641936049&amp;all_sr_blocks=3434405_95155346_0_0_0&amp;highlighted_blocks=3434405_95155346_0_0_0&amp;matching_block_id=3434405_95155346_0_0_0&amp;sr_pri_blocks=3434405_95155346_0_0_0__38880&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>698 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,304 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.6 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kensington Gardens Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/gb/kensington-gardens-hotel-london.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALm6PeOBsACAdICJGUyZDhhOWRiLWZmODAtNGVjYS1hMDZlLTY1YjkxZmVhN2Q0NtgCBuACAQ&amp;sid=ff07a0742b8d348aee788348f12cc6c1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-2601889&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=3e7995fa2dc600ec&amp;srepoch=1641936049&amp;all_sr_blocks=215493301_97009574_0_0_0&amp;highlighted_blocks=215493301_97009574_0_0_0&amp;matching_block_id=215493301_97009574_0_0_0&amp;sr_pri_blocks=215493301_97009574_0_0_0__34560&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>383 reviews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,048 lei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.4 km from centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Church Street Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.booking.com/hotel/gb/the-church-street.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALm6PeOBsACAdICJGUyZDhhOWRiLWZmODAtNGVjYS1hMDZlLTY1YjkxZmVhN2Q0NtgCBuACAQ&amp;sid=ff07a0742b8d348aee788348f12cc6c1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-2601889&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=3e7995fa2dc600ec&amp;srepoch=1641936049&amp;all_sr_blocks=3497006_179802252_0_2_0&amp;highlighted_blocks=3497006_179802252_0_2_0&amp;matching_block_id=3497006_179802252_0_2_0&amp;sr_pri_blocks=3497006_179802252_0_2_0__35000&amp;from=searchresults#hotelTmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>730 reviews</x:t>
   </x:si>
   <x:si>
     <x:t>4.5 km from centre</x:t>
   </x:si>
   <x:si>
-    <x:t>Eddie’s Design Apartments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/at/eddies-design-apartmans.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=438437602_131297295_2_0_0&amp;highlighted_blocks=438437602_131297295_2_0_0&amp;matching_block_id=438437602_131297295_2_0_0&amp;sr_pri_blocks=438437602_131297295_2_0_0__79000&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>389 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,910 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.6 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The newPAST Apartments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/at/quot-well-spaced-quot-apartment.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAKCmJOOBsACAdICJDY3YmVhOTQ1LTRjNmYtNGYyZC1iNTZkLWRjZDAyMDlhYjkyZNgCBuACAQ&amp;sid=40a24d8c6f214170d28d7b14f352b0b1&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-03-10&amp;checkout=2022-03-15&amp;dest_id=-1995499&amp;dest_type=city&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=bayesian_review_score&amp;nflt=class%3D4%3Bclass%3D5%3Bprice%3DRON-min-850-1&amp;srpvid=b2308806a4e401e3&amp;srepoch=1640287288&amp;all_sr_blocks=409046503_289830687_4_0_0&amp;highlighted_blocks=409046503_289830687_4_0_0&amp;matching_block_id=409046503_289830687_4_0_0&amp;sr_pri_blocks=409046503_289830687_4_0_0__48400&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>256 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,396 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.8 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Basilica</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/es/basilica-palma.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=0&amp;hapos=0&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=509233306_326566476_0_1_0%2C509233306_326566476_0_1_0&amp;highlighted_blocks=509233306_326566476_0_1_0%2C509233306_326566476_0_1_0&amp;matching_block_id=509233306_326566476_0_1_0&amp;sr_pri_blocks=509233306_326566476_0_1_0__95076%2C509233306_326566476_0_1_0__95076&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>758 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9,412 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.6 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fil Suites - Turismo de Interior</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/es/fil-suites-amp-homes.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=306471104_112250778_0_0_0%2C306471104_112250778_0_0_0&amp;highlighted_blocks=306471104_112250778_0_0_0%2C306471104_112250778_0_0_0&amp;matching_block_id=306471104_112250778_0_0_0&amp;sr_pri_blocks=306471104_112250778_0_0_0__46620%2C306471104_112250778_0_0_0__46620&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,414 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,615 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.7 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nakar Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/es/nkr.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=163571401_272307712_0_1_0%2C163571401_272307712_0_1_0&amp;highlighted_blocks=163571401_272307712_0_1_0%2C163571401_272307712_0_1_0&amp;matching_block_id=163571401_272307712_0_1_0&amp;sr_pri_blocks=163571401_272307712_0_1_0__99765%2C163571401_272307712_0_1_0__99765&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,058 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9,877 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.3 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Portixol Hotel &amp; Restaurant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/es/portixol.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=39610701_329626332_0_0_0%2C39610701_329626332_0_0_0&amp;highlighted_blocks=39610701_329626332_0_0_0%2C39610701_329626332_0_0_0&amp;matching_block_id=39610701_329626332_0_0_0&amp;sr_pri_blocks=39610701_329626332_0_0_0__121140%2C39610701_329626332_0_0_0__121140&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>385 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,993 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.3 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boutique Hotel Posada Terra Santa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/es/posada-terra-santa.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=100128409_88506615_0_2_0%2C100128409_88506615_0_2_0&amp;highlighted_blocks=100128409_88506615_0_2_0%2C100128409_88506615_0_2_0&amp;matching_block_id=100128409_88506615_0_2_0&amp;sr_pri_blocks=100128409_88506615_0_2_0__101665%2C100128409_88506615_0_2_0__101665&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>427 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,065 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Can Blau Homes Turismo de Interior</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/es/can-blau-homes-palma-de-mallorca.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=137516006_289861425_2_0_0%2C137516003_289861425_2_0_0&amp;highlighted_blocks=137516006_289861425_2_0_0%2C137516003_289861425_2_0_0&amp;matching_block_id=137516006_289861425_2_0_0&amp;sr_pri_blocks=137516006_289861425_2_0_0__71870%2C137516003_289861425_2_0_0__71870&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>701 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,348 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Cort</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/es/cort.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=59321302_328510656_0_1_0%2C59321305_328510656_2_1_0&amp;highlighted_blocks=59321302_328510656_0_1_0%2C59321305_328510656_2_1_0&amp;matching_block_id=59321302_328510656_0_1_0&amp;sr_pri_blocks=59321302_328510656_0_1_0__95790%2C59321305_328510656_2_1_0__111990&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>334 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,285 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BO Hotel Palma</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/es/bo-palma.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=190475201_92795351_0_34_0%2C190475201_92795351_0_34_0&amp;highlighted_blocks=190475201_92795351_0_34_0%2C190475201_92795351_0_34_0&amp;matching_block_id=190475201_92795351_0_34_0&amp;sr_pri_blocks=190475201_92795351_0_34_0__61730%2C190475201_92795351_0_34_0__61730&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>413 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,111 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Terreno Studios</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/es/terreno-studios.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=399969709_332997459_4_0_0&amp;highlighted_blocks=399969709_332997459_4_0_0&amp;matching_block_id=399969709_332997459_4_0_0&amp;sr_pri_blocks=399969709_332997459_4_0_0__235320&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>239 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,648 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.2 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mallorca Suites - Turismo de Interior</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/es/mallorca-suites.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuAK8mJOOBsACAdICJDQwNTJmZTQ1LWYyNTktNGVhMi04MjQ4LTVjOGNhNjcxMmIyZdgCBuACAQ&amp;sid=48b7a1026d9c5a8309964ba08cdd0872&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-08-05&amp;checkout=2022-08-08&amp;dest_id=-395224&amp;dest_type=city&amp;group_adults=4&amp;req_adults=4&amp;no_rooms=2&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=bayesian_review_score&amp;nflt=class%3D2%3Bclass%3D3%3Bclass%3D4&amp;srpvid=732c8825db8800ca&amp;srepoch=1640287324&amp;all_sr_blocks=245695703_335707429_4_0_0&amp;highlighted_blocks=245695703_335707429_4_0_0&amp;matching_block_id=245695703_335707429_4_0_0&amp;sr_pri_blocks=245695703_335707429_4_0_0__87565&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>810 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,334 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Premier Inn Abu Dhabi International Airport</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/premier-inn-abu-dhabi-international-airport.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=0&amp;hapos=0&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=62146505_273565518_2_2_0&amp;highlighted_blocks=62146505_273565518_2_2_0&amp;matching_block_id=62146505_273565518_2_2_0&amp;sr_pri_blocks=62146505_273565518_2_2_0__136828&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,886 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,628 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28.3 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Premier Inn Abu Dhabi Capital Centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/premier-inn-abu-dhabi-capital-centre.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=34019601_273565531_0_2_0&amp;highlighted_blocks=34019601_273565531_0_2_0&amp;matching_block_id=34019601_273565531_0_2_0&amp;sr_pri_blocks=34019601_273565531_0_2_0__202452&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,096 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,409 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.5 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Al Diar Dana Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/al-diar-dana.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=6728902_83360103_0_2_0&amp;highlighted_blocks=6728902_83360103_0_2_0&amp;matching_block_id=6728902_83360103_0_2_0&amp;sr_pri_blocks=6728902_83360103_0_2_0__137393&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,512 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,635 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Park Inn by Radisson Abu Dhabi Yas Island</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/park-inn-abu-dhabi-yas-island.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=18344613_295322101_2_2_0&amp;highlighted_blocks=18344613_295322101_2_2_0&amp;matching_block_id=18344613_295322101_2_2_0&amp;sr_pri_blocks=18344613_295322101_2_2_0__136828&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,350 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23.2 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beach Rotana – All Suites</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/beach-rotana-suites.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=171977402_341541249_0_2_0&amp;highlighted_blocks=171977402_341541249_0_2_0&amp;matching_block_id=171977402_341541249_0_2_0&amp;sr_pri_blocks=171977402_341541249_0_2_0__208793&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7.9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>296 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,485 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.3 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Centro Al Manhal by Rotana</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/centro-al-manhal-abu-dhabi.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=32223001_340022818_0_42_0&amp;highlighted_blocks=32223001_340022818_0_42_0&amp;matching_block_id=32223001_340022818_0_42_0&amp;sr_pri_blocks=32223001_340022818_0_42_0__165065&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,807 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,964 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.5 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Downtown Plaza Hotel Apartment Pet Friendly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/downtown-plaza.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=26417801_245460800_0_0_0&amp;highlighted_blocks=26417801_245460800_0_0_0&amp;matching_block_id=26417801_245460800_0_0_0&amp;sr_pri_blocks=26417801_245460800_0_0_0__195750&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,330 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.9 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Loulou Asfar Hotel Apartment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/loulou-asfar-apartment.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=30934902_198656758_0_0_0&amp;highlighted_blocks=30934902_198656758_0_0_0&amp;matching_block_id=30934902_198656758_0_0_0&amp;sr_pri_blocks=30934902_198656758_0_0_0__176925&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7.7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>287 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,106 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.8 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Executive Suites</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/executive-suites-by-mourouj-gloria-superior-hotel-apartments.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=46580601_235498570_0_42_0&amp;highlighted_blocks=46580601_235498570_0_42_0&amp;matching_block_id=46580601_235498570_0_42_0&amp;sr_pri_blocks=46580601_235498570_0_42_0__129375&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>886 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,540 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.5 km from centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Centro Yas Island-by Rotana</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.booking.com/hotel/ae/centro-yas-island-abu-dhabi.en-gb.html?label=gen173nr-1FCAEoggI46AdIM1gEaMABiAEBmAEJuAEXyAEM2AEB6AEB-AELiAIBqAIDuALfmJOOBsACAdICJDc4NWE1MjJhLWVhYWUtNDY4NS1iZjFhLTMyOTBhMmIzNmU5YtgCBuACAQ&amp;sid=ce2f4915985b38434cf9edec401c5aba&amp;aid=304142&amp;ucfs=1&amp;arphpl=1&amp;checkin=2022-05-22&amp;checkout=2022-05-27&amp;dest_id=-782066&amp;dest_type=city&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=bayesian_review_score&amp;nflt=class%3D1%3Bclass%3D2%3Bclass%3D3%3Bprice%3DRON-min-500-1&amp;srpvid=27a38835dcfe0448&amp;srepoch=1640287384&amp;all_sr_blocks=4712705_94269395_0_42_0&amp;highlighted_blocks=4712705_94269395_0_42_0&amp;matching_block_id=4712705_94269395_0_42_0&amp;sr_pri_blocks=4712705_94269395_0_42_0__118975&amp;from=searchresults#hotelTmpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,170 reviews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,416 lei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23.3 km from centre</x:t>
+    <x:t>TouristAttraction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Link</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VisitTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prado Museum Timed Entry Tickets</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.headout.com%2Ftour%2F3586%2Fspain%2Fmadrid%2Fprado-museum-timed-entry-tickets-e-3586%3Faffiliate_code%3Dlsxe5i%26utm_source%3Dtourscanner%26utm_medium%3Daffiliate%26utm_campaign%3Du00014TnaenRO%26currencyCode%3DEUR%26languageCode%3Den&amp;t=Prado%20Museum%20Timed%20Entry%20Tickets&amp;p=headout&amp;i=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.5 hours</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Skip-the-line tickets to the Reina Sofía Museum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.musement.com%2Fus%2Fmadrid%2Fskip-the-line-tickets-to-the-reina-sofia-museum-4581%2F%3Faid%3DTourscanner%26cid%3Du00014TnaenRO%26currency%3DEUR&amp;t=Skip-the-line%20tickets%20to%20the%20Reina%20Sof%C3%ADa%20Museum&amp;p=musement&amp;i=2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 day</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Segovia Alcazar &amp; Toledo Guided Tour with Optional Cathedral Tour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.headout.com%2Ftour%2F10953%2Fspain%2Fmadrid%2Fsegovia-alcazar-toledo-guided-tour-with-optional-cathedral-access-e-10953%3Faffiliate_code%3Dlsxe5i%26utm_source%3Dtourscanner%26utm_medium%3Daffiliate%26utm_campaign%3Du00014TnaenRO%26currencyCode%3DEUR%26languageCode%3Den&amp;t=Segovia%20Alcazar%20%26%20Toledo%20Guided%20Tour%20with%20Optional%20Cathedral%20Tour&amp;p=headout&amp;i=3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 hours</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Madrid Tapas Night Walking Tour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.viator.com%2Ftours%2FMadrid%2FMadrid-Tapas-Night-Walking-Tour%2Fd566-2294ADVTAPAS%3Fmcid%3D42383%26campaign%3Du-00014TnaenRO%26pid%3DP00051294%26medium%3Dapi%26api_version%3D2.0%26SUBPUID%3Du00014TnaenRO%26currency%3DEUR&amp;t=Madrid%20Tapas%20Night%20Walking%20Tour&amp;p=viator&amp;i=4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 hours</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Madrid: Royal Palace Skip-the-Line Guided Tour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.getyourguide.com%2Fmadrid-l46%2Fmadrid-royal-palace-skip-the-line-guided-tour-t231452%2F%3Fpartner_id%3D8ZL2433%26psrc%3Dpartner_api%26cmp%3Du00014TnaenRO%26currency%3DEUR&amp;t=Madrid%3A%20Royal%20Palace%20Skip-the-Line%20Guided%20Tour&amp;p=getyourguide&amp;i=5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 hours</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bernabeu Tour &amp; Museum: Direct Entrance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.tiqets.com%2Fen%2Fmadrid-attractions-c66254%2Ftickets-for-bernabeu-tour-direct-entrance-p974045%2F%3Fpartner%3Dtourscanner%26tq_campaign%3Du00014TnaenRO%26currency%3DEUR&amp;t=Bernabeu%20Tour%20%26%20Museum%3A%20Direct%20Entrance&amp;p=tiqets&amp;i=6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fast Track Ticket: San Lorenzo of El Escorial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.headout.com%2Ftour%2F11714%2Fspain%2Fmadrid%2Ffast-track-ticket-san-lorenzo-of-el-escorial-e-11714%3Faffiliate_code%3Dlsxe5i%26utm_source%3Dtourscanner%26utm_medium%3Daffiliate%26utm_campaign%3Du00014TnaenRO%26currencyCode%3DEUR%26languageCode%3Den&amp;t=Fast%20Track%20Ticket%3A%20San%20Lorenzo%20of%20El%20Escorial&amp;p=headout&amp;i=7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flamenco Show at Corral de la Morería in Madrid with Optional Dinner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.viator.com%2Ftours%2FMadrid%2FFlamenco-Show-at-Corral-de-la-Moreria-in-Madrid%2Fd566-6646MORERIA%3Fmcid%3D42383%26campaign%3Du-00014TnaenRO%26pid%3DP00051294%26medium%3Dapi%26api_version%3D2.0%26SUBPUID%3Du00014TnaenRO%26currency%3DEUR&amp;t=Flamenco%20Show%20at%20Corral%20de%20la%20Morer%C3%ADa%20in%20Madrid%20with%20Optional%20Dinner&amp;p=viator&amp;i=8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 hours</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Madrid: City Tour by Electric Tuk-Tuk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.getyourguide.com%2Fmadrid-l46%2Fwelcome-tour-to-madrid-by-electric-tuk-tuk-t394363%2F%3Fpartner_id%3D8ZL2433%26psrc%3Dpartner_api%26cmp%3Du00014TnaenRO%26currency%3DEUR&amp;t=Madrid%3A%20City%20Tour%20by%20Electric%20Tuk-Tuk&amp;p=getyourguide&amp;i=9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 hour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Guided visit and tickets to Prado Museum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.musement.com%2Fus%2Fmadrid%2Fguided-visit-and-tickets-to-prado-museum-2931%2F%3Faid%3DTourscanner%26cid%3Du00014TnaenRO%26currency%3DEUR&amp;t=Guided%20visit%20and%20tickets%20to%20Prado%20Museum&amp;p=musement&amp;i=10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rafa Nadal Museum Xperience Skip the Line Tickets</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.headout.com%2Ftour%2F13066%2Fspain%2Fmallorca%2Frafa-nadal-museum-xperience-skip-the-line-tickets-e-13066%3Faffiliate_code%3Dlsxe5i%26utm_source%3Dtourscanner%26utm_medium%3Daffiliate%26utm_campaign%3Du00014TnaenRO%26currencyCode%3DEUR%26languageCode%3Den&amp;t=Rafa%20Nadal%20Museum%20Xperience%20Skip%20the%20Line%20Tickets&amp;p=headout&amp;i=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Challenge in Mallorca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.viator.com%2Ftours%2FMallorca%2FTHE-CHALLENGE-MALLORCA%2Fd955-12276P1%3Fmcid%3D42383%26campaign%3Du-00014TnaenRO%26pid%3DP00051294%26medium%3Dapi%26api_version%3D2.0%26SUBPUID%3Du00014TnaenRO%26currency%3DEUR&amp;t=The%20Challenge%20in%20Mallorca&amp;p=viator&amp;i=2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mallorca: Off-Road Quad Biking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.getyourguide.com%2Fmallorca-l47%2Fmallorca-quad-bike-tour-with-snorkeling-and-swimming-t75869%2F%3Fpartner_id%3D8ZL2433%26psrc%3Dpartner_api%26cmp%3Du00014TnaenRO%26currency%3DEUR&amp;t=Mallorca%3A%20Off-Road%20Quad%20Biking&amp;p=getyourguide&amp;i=3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mallorca Quad Experience</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.viator.com%2Ftours%2FMallorca%2FEXCURSION-IN-QUAD-OF-3H-IN-MAJORCA-Free-passenger%2Fd955-180400P1%3Fmcid%3D42383%26campaign%3Du-00014TnaenRO%26pid%3DP00051294%26medium%3Dapi%26api_version%3D2.0%26SUBPUID%3Du00014TnaenRO%26currency%3DEUR&amp;t=Mallorca%20Quad%20Experience&amp;p=viator&amp;i=4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.5 hours</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Old Town Tour of Palma and Tapas Bar by Night</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.getyourguide.com%2Fmallorca-l47%2Fold-town-tour-of-palma-and-tapas-bars-by-night-t49552%2F%3Fpartner_id%3D8ZL2433%26psrc%3Dpartner_api%26cmp%3Du00014TnaenRO%26currency%3DEUR&amp;t=Old%20Town%20Tour%20of%20Palma%20and%20Tapas%20Bar%20by%20Night&amp;p=getyourguide&amp;i=5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Palma &amp; More Tours</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.musement.com%2Fus%2Fmajorca%2Fpalma-more-tours-8-123359%2F%3Faid%3DTourscanner%26cid%3Du00014TnaenRO%26currency%3DEUR&amp;t=Palma%20%26%20More%20Tours&amp;p=musement&amp;i=6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 hours</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Driver's license free boat rental</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.viator.com%2Ftours%2FMallorca%2FDrivers-license-free-boat-rental%2Fd955-148941P1%3Fmcid%3D42383%26campaign%3Du-00014TnaenRO%26pid%3DP00051294%26medium%3Dapi%26api_version%3D2.0%26SUBPUID%3Du00014TnaenRO%26currency%3DEUR&amp;t=Driver%27s%20license%20free%20boat%20rental&amp;p=viator&amp;i=7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Palma de Majorca: Guided Tour of the Old Town</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.getyourguide.com%2Fmallorca-l47%2Fpalma-de-majorca-guided-tour-of-the-old-town-t49566%2F%3Fpartner_id%3D8ZL2433%26psrc%3Dpartner_api%26cmp%3Du00014TnaenRO%26currency%3DEUR&amp;t=Palma%20de%20Majorca%3A%20Guided%20Tour%20of%20the%20Old%20Town&amp;p=getyourguide&amp;i=8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mallorca water adventure</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.musement.com%2Fus%2Fmajorca%2Fmallorca-water-adventure-161071%2F%3Faid%3DTourscanner%26cid%3Du00014TnaenRO%26currency%3DEUR&amp;t=Mallorca%20water%20adventure&amp;p=musement&amp;i=9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cuevas dels Hams</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tourscanner.com/forward?u=https%3A%2F%2Fwww.tiqets.com%2Fen%2Fporto-cristo-attractions-c975%2Ftickets-for-cuevas-dels-hams-p976019%2F%3Fpartner%3Dtourscanner%26tq_campaign%3Du00014TnaenRO%26currency%3DEUR&amp;t=Cuevas%20dels%20Hams&amp;p=tiqets&amp;i=10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>€ 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Restaurant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PriceCategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RestaurantType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Taller de Mar Restaurant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g187463-d12730971-Reviews-Taller_de_Mar_Restaurant-Palma_de_Mallorca_Majorca_Balearic_Islands.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>expensive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Italian, Japanese</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Agra Tandoori Indian Restaurant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g187463-d13587211-Reviews-Agra_Tandoori_Indian_Restaurant-Palma_de_Mallorca_Majorca_Balearic_Islands.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>medium</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indian</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. Cannibal Cantina Bistro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g187463-d17811024-Reviews-Cannibal_Cantina_Bistro-Palma_de_Mallorca_Majorca_Balearic_Islands.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mediterranean, Spanish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. Izakaya Mallorca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g187463-d12173834-Reviews-Izakaya_Mallorca-Palma_de_Mallorca_Majorca_Balearic_Islands.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Japanese, Sushi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. Hungry Gastro Food Bar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g187463-d17253091-Reviews-Hungry_Gastro_Food_Bar-Palma_de_Mallorca_Majorca_Balearic_Islands.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mediterranean, European</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. Sa Cuina De Mercat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g187463-d17436511-Reviews-Sa_Cuina_De_Mercat-Palma_de_Mallorca_Majorca_Balearic_Islands.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>International, Mediterranean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8. Wasabi Blue Palma</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g187463-d1134176-Reviews-Wasabi_Blue_Palma-Palma_de_Mallorca_Majorca_Balearic_Islands.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9. Gigi's Piccolo Ristorante</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g187463-d12581542-Reviews-Gigi_s_Piccolo_Ristorante-Palma_de_Mallorca_Majorca_Balearic_Islands.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Italian</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10. Madras Indian Restaurant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g187463-d17821864-Reviews-Madras_Indian_Restaurant-Palma_de_Mallorca_Majorca_Balearic_Islands.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indian, Asian</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11. Daikiya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g187463-d12544053-Reviews-Daikiya-Palma_de_Mallorca_Majorca_Balearic_Islands.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Ormer Mayfair</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g186338-d10682050-Reviews-Ormer_Mayfair-London_England.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>British</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Mango Tree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g186338-d719987-Reviews-Mango_Tree-London_England.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Asian, Thai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Gordon Ramsay Bar &amp; Grill - Mayfair</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g186338-d3916513-Reviews-Gordon_Ramsay_Bar_Grill_Mayfair-London_England.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steakhouse, European</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. Amrutha Lounge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g186338-d13544747-Reviews-Amrutha_Lounge-London_England.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. Bonoo Indian Tapas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g186338-d10460592-Reviews-Bonoo_Indian_Tapas-London_England.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wine Bar, Indian</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. Andy's Greek Taverna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g186338-d10440481-Reviews-Andy_s_Greek_Taverna-London_England.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. Chamisse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g186338-d3681424-Reviews-Chamisse-London_England.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lebanese, Mediterranean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8. Lizzie's Cucina - Italian Restaurant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g186338-d23423312-Reviews-Lizzie_s_Cucina_Italian_Restaurant-London_England.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9. Indian Room</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g186338-d783897-Reviews-Indian_Room-London_England.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10. Taste Of Nawab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tripadvisor.com/Restaurant_Review-g186338-d813149-Reviews-Taste_Of_Nawab-London_England.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indian, Healthy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -972,7 +1369,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>31</x:v>
@@ -981,107 +1378,104 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="F8" s="0" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="E9" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
+      <x:c r="F9" s="0" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1126,202 +1520,202 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1366,202 +1760,964 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
         <x:v>112</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
         <x:v>130</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E11"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="A1" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
       <x:c r="B11" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E11"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="A1" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D11"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D11"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>294</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
